--- a/output/TableS5.xlsx
+++ b/output/TableS5.xlsx
@@ -417,13 +417,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>17718.55838682618</v>
+        <v>19792.54129835656</v>
       </c>
       <c r="C2">
-        <v>241358.4536366869</v>
+        <v>259490.0913668228</v>
       </c>
       <c r="D2">
-        <v>7.341179942053181</v>
+        <v>7.627474788768424</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,13 +431,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>33872.19140473903</v>
+        <v>15066.47555447738</v>
       </c>
       <c r="C3">
-        <v>259060.1261870991</v>
+        <v>140979.0787425693</v>
       </c>
       <c r="D3">
-        <v>13.07503084449043</v>
+        <v>10.68702937262704</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,13 +445,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>394.8438965349912</v>
+        <v>621.6720529563064</v>
       </c>
       <c r="C4">
-        <v>5226.27320961613</v>
+        <v>6179.869957071091</v>
       </c>
       <c r="D4">
-        <v>7.554980015367251</v>
+        <v>10.05963001284486</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,13 +459,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>23883.16960588975</v>
+        <v>30290.74036012588</v>
       </c>
       <c r="C5">
-        <v>329537.2331134058</v>
+        <v>316598.7517522383</v>
       </c>
       <c r="D5">
-        <v>7.247487447851055</v>
+        <v>9.567548890347679</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,13 +473,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4809.974405273912</v>
+        <v>5701.982570874461</v>
       </c>
       <c r="C6">
-        <v>113826.0971498638</v>
+        <v>117665.1833764828</v>
       </c>
       <c r="D6">
-        <v>4.225721979153063</v>
+        <v>4.845938626237748</v>
       </c>
     </row>
   </sheetData>
